--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
     <sheet name="Calculadora cuadratica" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte General 11 Sur'!$E$41:$E$138</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>Faltan 2 comprobantes de "Estacionamiento Rocio" con valor de $30.00 cada uno</t>
+  </si>
+  <si>
+    <t>ABRIL 2024</t>
   </si>
 </sst>
 </file>
@@ -585,10 +591,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E72" si="1">WEEKDAY(A42)</f>
+        <f t="shared" ref="E42:E75" si="1">WEEKDAY(A42)</f>
         <v>2</v>
       </c>
     </row>
@@ -1432,11 +1438,17 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
+      <c r="E73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
+      <c r="E74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -1448,8 +1460,8 @@
       <c r="C75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>1</v>
+      <c r="E75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,24 +1902,21 @@
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
+      <c r="E106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>1</v>
+      <c r="E107" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1921,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="E108">
-        <f t="shared" ref="E108:E138" si="3">WEEKDAY(A108)</f>
+        <f t="shared" ref="E108:E171" si="3">WEEKDAY(A108)</f>
         <v>6</v>
       </c>
     </row>
@@ -2285,18 +2294,312 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>45383</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="E142">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>45384</v>
       </c>
+      <c r="E143">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45385</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45386</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45387</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45388</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45389</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45390</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45391</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45393</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45394</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45395</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45396</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45397</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45398</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45399</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45400</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45401</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45402</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45403</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45404</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45405</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45406</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45407</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45409</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45410</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45411</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45412</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="E41:E138"/>
+  <mergeCells count="6">
+    <mergeCell ref="A139:C140"/>
     <mergeCell ref="A105:C106"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A1:F4"/>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>ABRIL 2024</t>
+  </si>
+  <si>
+    <t>Reporta un sobrante de 2000, sin embargo ese sobrante no se ve representado en el corte. "Monse reporta a los Jefes"</t>
+  </si>
+  <si>
+    <t>No reporto deposito de Oxxo "8658" Con la cantidad de "2815</t>
+  </si>
+  <si>
+    <t>No reporta el deposito a Victor con la cantidad de $67,000 y 26336</t>
+  </si>
+  <si>
+    <t>Indica que abrio caja 2 veces y tiene un retiro 3342</t>
+  </si>
+  <si>
+    <t>No estan los reportes de retiro</t>
   </si>
 </sst>
 </file>
@@ -593,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView topLeftCell="A120" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +993,7 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:E75" si="1">WEEKDAY(A42)</f>
+        <f t="shared" ref="E42:E72" si="1">WEEKDAY(A42)</f>
         <v>2</v>
       </c>
     </row>
@@ -2148,6 +2163,12 @@
       <c r="A123" s="1">
         <v>45367</v>
       </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
       <c r="E123">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2199,6 +2220,12 @@
       <c r="A128" s="1">
         <v>45372</v>
       </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>48</v>
+      </c>
       <c r="E128">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2208,6 +2235,12 @@
       <c r="A129" s="1">
         <v>45373</v>
       </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
       <c r="E129">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2217,6 +2250,12 @@
       <c r="A130" s="1">
         <v>45374</v>
       </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>49</v>
+      </c>
       <c r="E130">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2235,6 +2274,12 @@
       <c r="A132" s="1">
         <v>45376</v>
       </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>51</v>
+      </c>
       <c r="E132">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2244,6 +2289,12 @@
       <c r="A133" s="1">
         <v>45377</v>
       </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
       <c r="E133">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2253,6 +2304,12 @@
       <c r="A134" s="1">
         <v>45378</v>
       </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
       <c r="E134">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2262,6 +2319,12 @@
       <c r="A135" s="1">
         <v>45379</v>
       </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>50</v>
+      </c>
       <c r="E135">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2270,6 +2333,12 @@
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45380</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
       </c>
       <c r="E136">
         <f t="shared" si="3"/>
@@ -2618,8 +2687,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,10 +2703,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5">
-        <v>2400</v>
+        <v>334</v>
       </c>
       <c r="B1" s="5">
-        <v>1352</v>
+        <v>157</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2648,7 +2717,9 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>177</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -3279,11 +3350,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>2400</v>
+        <v>334</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>1352</v>
+        <v>334</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -3316,7 +3387,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>No estan los reportes de retiro</t>
+  </si>
+  <si>
+    <t>Reporta la cajaera equivocarse en una postic done el pago era con tarjeta y paso a efectivo con la cantidad de $189</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -608,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2199,12 @@
       <c r="A125" s="1">
         <v>45369</v>
       </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
       <c r="E125">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2202,6 +2214,12 @@
       <c r="A126" s="1">
         <v>45370</v>
       </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>53</v>
+      </c>
       <c r="E126">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2211,6 +2229,12 @@
       <c r="A127" s="1">
         <v>45371</v>
       </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
       <c r="E127">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2265,6 +2289,9 @@
       <c r="A131" s="1">
         <v>45375</v>
       </c>
+      <c r="B131" t="s">
+        <v>54</v>
+      </c>
       <c r="E131">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2349,6 +2376,12 @@
       <c r="A137" s="1">
         <v>45381</v>
       </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
       <c r="E137">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2357,6 +2390,12 @@
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45382</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
       </c>
       <c r="E138">
         <f t="shared" si="3"/>
@@ -2687,7 +2726,7 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>La cajera Fernanda indica que le sobran $5500 que se metieron al corte pero posteriormente y cito "revisó los paquetes de efectivo y faltaba dinero en el corte del día anterior"dejando como cantidad unánime $2186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebotado por desorden </t>
+  </si>
+  <si>
+    <t>Al corte del día le faltan ingresar las transferencias así como ordenar adecuadamente los baucher de tarjeta, el corte es rebotado debido a la falta de comprobantes para su revisión</t>
+  </si>
+  <si>
+    <t>Rebotado por falta de documentos</t>
   </si>
 </sst>
 </file>
@@ -204,7 +216,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +253,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -322,6 +348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -614,8 +642,8 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A141" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,50 +652,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -963,16 +991,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -1454,19 +1482,19 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
       <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
       <c r="E74">
         <v>0</v>
       </c>
@@ -1918,19 +1946,19 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
       <c r="E105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
       <c r="E106">
         <v>0</v>
       </c>
@@ -2403,19 +2431,19 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
       <c r="E139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
       <c r="E140">
         <v>0</v>
       </c>
@@ -2438,6 +2466,12 @@
       <c r="A142" s="1">
         <v>45383</v>
       </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
       <c r="E142">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2447,6 +2481,12 @@
       <c r="A143" s="1">
         <v>45384</v>
       </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
       <c r="E143">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2456,6 +2496,12 @@
       <c r="A144" s="1">
         <v>45385</v>
       </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
       <c r="E144">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2465,6 +2511,12 @@
       <c r="A145" s="1">
         <v>45386</v>
       </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
       <c r="E145">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2474,6 +2526,12 @@
       <c r="A146" s="1">
         <v>45387</v>
       </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
       <c r="E146">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2483,6 +2541,12 @@
       <c r="A147" s="1">
         <v>45388</v>
       </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
       <c r="E147">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2492,6 +2556,12 @@
       <c r="A148" s="1">
         <v>45389</v>
       </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
       <c r="E148">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2501,6 +2571,12 @@
       <c r="A149" s="1">
         <v>45390</v>
       </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
       <c r="E149">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2510,6 +2586,12 @@
       <c r="A150" s="1">
         <v>45391</v>
       </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
       <c r="E150">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2519,6 +2601,12 @@
       <c r="A151" s="1">
         <v>45392</v>
       </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
       <c r="E151">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2528,6 +2616,12 @@
       <c r="A152" s="1">
         <v>45393</v>
       </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>55</v>
+      </c>
       <c r="E152">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2537,6 +2631,12 @@
       <c r="A153" s="1">
         <v>45394</v>
       </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
       <c r="E153">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2546,6 +2646,12 @@
       <c r="A154" s="1">
         <v>45395</v>
       </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>56</v>
+      </c>
       <c r="E154">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2555,6 +2661,12 @@
       <c r="A155" s="1">
         <v>45396</v>
       </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
       <c r="E155">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2564,6 +2676,12 @@
       <c r="A156" s="1">
         <v>45397</v>
       </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
       <c r="E156">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2573,6 +2691,12 @@
       <c r="A157" s="1">
         <v>45398</v>
       </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E157">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2582,6 +2706,12 @@
       <c r="A158" s="1">
         <v>45399</v>
       </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
       <c r="E158">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -2591,6 +2721,12 @@
       <c r="A159" s="1">
         <v>45400</v>
       </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>58</v>
+      </c>
       <c r="E159">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2599,6 +2735,12 @@
     <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45401</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
       </c>
       <c r="E160">
         <f t="shared" si="3"/>
@@ -2726,8 +2868,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,12 +2883,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
-        <v>334</v>
-      </c>
-      <c r="B1" s="5">
-        <v>157</v>
-      </c>
+      <c r="A1" s="9">
+        <v>738</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="G1" s="5"/>
@@ -2755,10 +2895,10 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5">
-        <v>177</v>
-      </c>
+      <c r="A2" s="9">
+        <v>114</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -2767,8 +2907,8 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
@@ -2777,8 +2917,8 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5"/>
@@ -2787,8 +2927,8 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
@@ -2797,8 +2937,8 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="G6" s="5"/>
@@ -2807,8 +2947,8 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
@@ -2817,8 +2957,8 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
@@ -2827,8 +2967,8 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
@@ -2837,8 +2977,8 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
@@ -2846,9 +2986,9 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
@@ -2858,7 +2998,7 @@
     </row>
     <row r="12" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="G12" s="5"/>
@@ -2868,7 +3008,7 @@
     </row>
     <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="G13" s="5"/>
@@ -2878,7 +3018,7 @@
     </row>
     <row r="14" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="9"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -2888,7 +3028,7 @@
     </row>
     <row r="15" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="9"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
@@ -2898,7 +3038,7 @@
     </row>
     <row r="16" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
@@ -2908,7 +3048,7 @@
     </row>
     <row r="17" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
@@ -2918,7 +3058,7 @@
     </row>
     <row r="18" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
@@ -2928,7 +3068,7 @@
     </row>
     <row r="19" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="9"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="5"/>
@@ -2938,7 +3078,7 @@
     </row>
     <row r="20" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="9"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
@@ -2948,7 +3088,7 @@
     </row>
     <row r="21" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="B21" s="9"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
@@ -2958,7 +3098,7 @@
     </row>
     <row r="22" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="9"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
@@ -2968,7 +3108,7 @@
     </row>
     <row r="23" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="9"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
@@ -2978,7 +3118,7 @@
     </row>
     <row r="24" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="B24" s="9"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
@@ -2988,7 +3128,7 @@
     </row>
     <row r="25" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="9"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
@@ -2998,7 +3138,7 @@
     </row>
     <row r="26" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="9"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
@@ -3008,7 +3148,7 @@
     </row>
     <row r="27" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="9"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
@@ -3018,7 +3158,7 @@
     </row>
     <row r="28" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="9"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
@@ -3028,7 +3168,7 @@
     </row>
     <row r="29" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="9"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
@@ -3038,7 +3178,7 @@
     </row>
     <row r="30" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="9"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
@@ -3389,11 +3529,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>334</v>
+        <v>852</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -3426,7 +3566,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>
@@ -3477,7 +3617,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="4.51" right="0.21" top="0.2" bottom="0.75" header="0.17" footer="0.3"/>
+  <pageMargins left="0.24" right="0.21" top="0.2" bottom="0.75" header="0.17" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="56">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -197,15 +197,6 @@
   </si>
   <si>
     <t>La cajera Fernanda indica que le sobran $5500 que se metieron al corte pero posteriormente y cito "revisó los paquetes de efectivo y faltaba dinero en el corte del día anterior"dejando como cantidad unánime $2186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebotado por desorden </t>
-  </si>
-  <si>
-    <t>Al corte del día le faltan ingresar las transferencias así como ordenar adecuadamente los baucher de tarjeta, el corte es rebotado debido a la falta de comprobantes para su revisión</t>
-  </si>
-  <si>
-    <t>Rebotado por falta de documentos</t>
   </si>
 </sst>
 </file>
@@ -642,8 +633,8 @@
   </sheetPr>
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView topLeftCell="A149" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2650,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E154">
         <f t="shared" si="3"/>
@@ -2695,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E157">
         <f t="shared" si="3"/>
@@ -2725,7 +2716,7 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <f t="shared" si="3"/>
@@ -2751,6 +2742,12 @@
       <c r="A161" s="1">
         <v>45402</v>
       </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
       <c r="E161">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2760,6 +2757,12 @@
       <c r="A162" s="1">
         <v>45403</v>
       </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
       <c r="E162">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2769,6 +2772,12 @@
       <c r="A163" s="1">
         <v>45404</v>
       </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
       <c r="E163">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2778,6 +2787,12 @@
       <c r="A164" s="1">
         <v>45405</v>
       </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
       <c r="E164">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -2786,6 +2801,9 @@
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45406</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
       </c>
       <c r="E165">
         <f t="shared" si="3"/>
@@ -2869,7 +2887,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,9 +2902,11 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>738</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>3136</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2921</v>
+      </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="G1" s="5"/>
@@ -2895,10 +2915,10 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>114</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="5">
+        <v>215</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -3529,11 +3549,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>852</v>
+        <v>3136</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -3566,7 +3586,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>La cajera Fernanda indica que le sobran $5500 que se metieron al corte pero posteriormente y cito "revisó los paquetes de efectivo y faltaba dinero en el corte del día anterior"dejando como cantidad unánime $2186</t>
+  </si>
+  <si>
+    <t>En los bauchers hay una cantidad de $1,384.00 pero el baucher del baco vale $1,272 con un faltante de 112</t>
+  </si>
+  <si>
+    <t>MAYO 2024</t>
+  </si>
+  <si>
+    <t>Falta 2 baucher con la cantidad de $2,601 y $ 1,577</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,6 +2811,9 @@
       <c r="A165" s="1">
         <v>45406</v>
       </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
       <c r="C165" t="s">
         <v>17</v>
       </c>
@@ -2814,6 +2826,12 @@
       <c r="A166" s="1">
         <v>45407</v>
       </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
       <c r="E166">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2823,6 +2841,12 @@
       <c r="A167" s="1">
         <v>45408</v>
       </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
       <c r="E167">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2832,6 +2856,12 @@
       <c r="A168" s="1">
         <v>45409</v>
       </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
       <c r="E168">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2841,6 +2871,12 @@
       <c r="A169" s="1">
         <v>45410</v>
       </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
       <c r="E169">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -2850,6 +2886,12 @@
       <c r="A170" s="1">
         <v>45411</v>
       </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
       <c r="E170">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -2859,14 +2901,330 @@
       <c r="A171" s="1">
         <v>45412</v>
       </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
       <c r="E171">
         <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ref="E174:E175" si="4">WEEKDAY(A174)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ref="E176:E204" si="5">WEEKDAY(A176)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45416</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45417</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45418</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45419</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45420</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45421</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45423</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45424</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45425</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45426</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45427</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45428</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45429</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45430</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45431</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45432</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45433</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45434</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45435</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45436</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45437</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45438</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45439</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45440</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45442</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45443</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="E41:E138"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A172:C173"/>
     <mergeCell ref="A139:C140"/>
     <mergeCell ref="A105:C106"/>
     <mergeCell ref="A5:C6"/>
@@ -2886,8 +3244,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,10 +3260,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>3136</v>
+        <v>502</v>
       </c>
       <c r="B1" s="5">
-        <v>2921</v>
+        <v>246</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -2916,9 +3274,7 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
-      <c r="B2" s="5">
-        <v>215</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -3549,11 +3905,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>3136</v>
+        <v>502</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>3136</v>
+        <v>246</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -3586,7 +3942,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte General 11 Sur'!$E$41:$E$138</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="62">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -206,6 +207,15 @@
   </si>
   <si>
     <t>Falta 2 baucher con la cantidad de $2,601 y $ 1,577</t>
+  </si>
+  <si>
+    <t>En caja</t>
+  </si>
+  <si>
+    <t>Hay 2 Bauchers uno con la cantidad de $1,251 que se reporta como cantidad sobrante, pero hay otro con la cantidad de $664 que esta cobrado pero no se encuentra dentro del reporte.</t>
+  </si>
+  <si>
+    <t>Rebotado por falta de depositos</t>
   </si>
 </sst>
 </file>
@@ -642,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView topLeftCell="A174" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2945,7 @@
         <v>58</v>
       </c>
       <c r="E174">
-        <f t="shared" ref="E174:E175" si="4">WEEKDAY(A174)</f>
+        <f>WEEKDAY(A174)</f>
         <v>4</v>
       </c>
     </row>
@@ -2950,7 +2960,7 @@
         <v>17</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
+        <f>WEEKDAY(A175)</f>
         <v>5</v>
       </c>
     </row>
@@ -2965,7 +2975,7 @@
         <v>17</v>
       </c>
       <c r="E176">
-        <f t="shared" ref="E176:E204" si="5">WEEKDAY(A176)</f>
+        <f t="shared" ref="E176:E204" si="4">WEEKDAY(A176)</f>
         <v>6</v>
       </c>
     </row>
@@ -2973,8 +2983,14 @@
       <c r="A177" s="1">
         <v>45416</v>
       </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
       <c r="E177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -2982,8 +2998,14 @@
       <c r="A178" s="1">
         <v>45417</v>
       </c>
+      <c r="B178" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
       <c r="E178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2991,8 +3013,14 @@
       <c r="A179" s="1">
         <v>45418</v>
       </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>60</v>
+      </c>
       <c r="E179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3000,8 +3028,14 @@
       <c r="A180" s="1">
         <v>45419</v>
       </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
       <c r="E180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3009,8 +3043,14 @@
       <c r="A181" s="1">
         <v>45420</v>
       </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
       <c r="E181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3018,8 +3058,14 @@
       <c r="A182" s="1">
         <v>45421</v>
       </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
       <c r="E182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3027,8 +3073,14 @@
       <c r="A183" s="1">
         <v>45422</v>
       </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
       <c r="E183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3036,8 +3088,14 @@
       <c r="A184" s="1">
         <v>45423</v>
       </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
       <c r="E184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3045,8 +3103,14 @@
       <c r="A185" s="1">
         <v>45424</v>
       </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
       <c r="E185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3054,8 +3118,14 @@
       <c r="A186" s="1">
         <v>45425</v>
       </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
       <c r="E186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3063,8 +3133,14 @@
       <c r="A187" s="1">
         <v>45426</v>
       </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
       <c r="E187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3072,8 +3148,14 @@
       <c r="A188" s="1">
         <v>45427</v>
       </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
       <c r="E188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3081,8 +3163,14 @@
       <c r="A189" s="1">
         <v>45428</v>
       </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>61</v>
+      </c>
       <c r="E189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3090,8 +3178,14 @@
       <c r="A190" s="1">
         <v>45429</v>
       </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
       <c r="E190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3099,8 +3193,14 @@
       <c r="A191" s="1">
         <v>45430</v>
       </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>61</v>
+      </c>
       <c r="E191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3109,7 +3209,7 @@
         <v>45431</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3118,7 +3218,7 @@
         <v>45432</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3127,7 +3227,7 @@
         <v>45433</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3136,7 +3236,7 @@
         <v>45434</v>
       </c>
       <c r="E195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3145,7 +3245,7 @@
         <v>45435</v>
       </c>
       <c r="E196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3154,7 +3254,7 @@
         <v>45436</v>
       </c>
       <c r="E197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3163,7 +3263,7 @@
         <v>45437</v>
       </c>
       <c r="E198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3172,7 +3272,7 @@
         <v>45438</v>
       </c>
       <c r="E199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3181,7 +3281,7 @@
         <v>45439</v>
       </c>
       <c r="E200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3190,7 +3290,7 @@
         <v>45440</v>
       </c>
       <c r="E201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3199,7 +3299,7 @@
         <v>45441</v>
       </c>
       <c r="E202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -3208,7 +3308,7 @@
         <v>45442</v>
       </c>
       <c r="E203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3217,7 +3317,7 @@
         <v>45443</v>
       </c>
       <c r="E204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -3244,8 +3344,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3260,10 +3360,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>502</v>
+        <v>1156</v>
       </c>
       <c r="B1" s="5">
-        <v>246</v>
+        <v>1083</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3274,7 +3374,9 @@
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <v>73</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
@@ -3905,11 +4007,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>502</v>
+        <v>1156</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>246</v>
+        <v>1156</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -3942,7 +4044,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte General 11 Sur'!$E$41:$E$138</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,8 +651,8 @@
   </sheetPr>
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3343,7 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Rebotado por falta de depositos</t>
+  </si>
+  <si>
+    <t>Faltante de Sury con la cantidad de $787.00</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
   </sheetPr>
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView topLeftCell="A184" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,6 +3219,12 @@
       <c r="A193" s="1">
         <v>45432</v>
       </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
       <c r="E193">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3225,6 +3234,12 @@
       <c r="A194" s="1">
         <v>45433</v>
       </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
       <c r="E194">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -3233,6 +3248,12 @@
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45434</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>62</v>
       </c>
       <c r="E195">
         <f t="shared" si="4"/>
@@ -3343,8 +3364,8 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,10 +3380,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>1156</v>
+        <v>198</v>
       </c>
       <c r="B1" s="5">
-        <v>1083</v>
+        <v>68</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3374,7 +3395,7 @@
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -4006,11 +4027,11 @@
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <f>SUM(A1:A64)</f>
-        <v>1156</v>
+        <v>198</v>
       </c>
       <c r="B65" s="5">
         <f>SUM(B1:B64)</f>
-        <v>1156</v>
+        <v>148</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -4043,7 +4064,7 @@
       </c>
       <c r="B66" s="5">
         <f>A65-B65</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="63">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -654,8 +654,8 @@
   </sheetPr>
   <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView topLeftCell="A185" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,6 +3300,12 @@
       <c r="A200" s="1">
         <v>45439</v>
       </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
       <c r="E200">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -3335,6 +3341,9 @@
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45443</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
       </c>
       <c r="E204">
         <f t="shared" si="4"/>
@@ -3362,10 +3371,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,10 +3389,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="9">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="5">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -3393,9 +3402,11 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9">
+        <v>2355</v>
+      </c>
       <c r="B2" s="5">
-        <v>80</v>
+        <v>2355</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3405,8 +3416,12 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="9">
+        <v>1804</v>
+      </c>
+      <c r="B3" s="9">
+        <v>18004</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
@@ -3415,8 +3430,12 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="9">
+        <v>522</v>
+      </c>
+      <c r="B4" s="9">
+        <v>522</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5"/>
@@ -3425,8 +3444,12 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="9">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9">
+        <v>273</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
@@ -3435,8 +3458,12 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9">
+        <v>224</v>
+      </c>
+      <c r="B6" s="9">
+        <v>194</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="G6" s="5"/>
@@ -3445,8 +3472,12 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="9">
+        <v>197</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1755</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
@@ -3455,8 +3486,12 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="9">
+        <v>1755</v>
+      </c>
+      <c r="B8" s="9">
+        <v>708</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
@@ -3465,8 +3500,12 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="9">
+        <v>1349</v>
+      </c>
+      <c r="B9" s="9">
+        <v>249</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
@@ -3475,8 +3514,12 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9">
+        <v>708</v>
+      </c>
+      <c r="B10" s="9">
+        <v>331</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
@@ -3485,8 +3528,12 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="5">
+        <v>249</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1120</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
@@ -3494,9 +3541,13 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>434</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8400</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="G12" s="5"/>
@@ -3504,9 +3555,13 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1312</v>
+      </c>
+      <c r="B13" s="9">
+        <v>261</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="G13" s="5"/>
@@ -3514,9 +3569,13 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>331</v>
+      </c>
+      <c r="B14" s="9">
+        <v>964</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
@@ -3524,9 +3583,13 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>1120</v>
+      </c>
+      <c r="B15" s="9">
+        <v>58</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
@@ -3534,9 +3597,13 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>1057</v>
+      </c>
+      <c r="B16" s="9">
+        <v>58</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
@@ -3544,9 +3611,13 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>873</v>
+      </c>
+      <c r="B17" s="9">
+        <v>201</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
@@ -3554,9 +3625,13 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>607</v>
+      </c>
+      <c r="B18" s="9">
+        <v>150</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
@@ -3564,9 +3639,13 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>1076</v>
+      </c>
+      <c r="B19" s="9">
+        <v>485</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="G19" s="5"/>
@@ -3574,9 +3653,13 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>261</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4523</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
@@ -3584,9 +3667,13 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>964</v>
+      </c>
+      <c r="B21" s="9">
+        <v>718</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
@@ -3594,9 +3681,13 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>49</v>
+      </c>
+      <c r="B22" s="9">
+        <v>137</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
@@ -3604,9 +3695,13 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>350</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1349</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
@@ -3614,9 +3709,13 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>1051</v>
+      </c>
+      <c r="B24" s="9">
+        <v>655</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="G24" s="5"/>
@@ -3624,9 +3723,13 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>108</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1000</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="G25" s="5"/>
@@ -3634,9 +3737,13 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>477</v>
+      </c>
+      <c r="B26" s="9">
+        <v>200</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
@@ -3644,9 +3751,13 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>618</v>
+      </c>
+      <c r="B27" s="9">
+        <v>659</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
@@ -3654,9 +3765,13 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>182</v>
+      </c>
+      <c r="B28" s="9">
+        <v>483</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
@@ -3664,9 +3779,13 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>206</v>
+      </c>
+      <c r="B29" s="9">
+        <v>286</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
@@ -3674,9 +3793,13 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9">
+        <v>257</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="G30" s="5"/>
@@ -3684,9 +3807,13 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>655</v>
+      </c>
+      <c r="B31" s="5">
+        <v>661</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="G31" s="5"/>
@@ -3694,9 +3821,13 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>58</v>
+      </c>
+      <c r="B32" s="5">
+        <v>493</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="G32" s="5"/>
@@ -3704,9 +3835,13 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>201</v>
+      </c>
+      <c r="B33" s="5">
+        <v>100</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="G33" s="5"/>
@@ -3714,9 +3849,13 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>160</v>
+      </c>
+      <c r="B34" s="5">
+        <v>872</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
@@ -3724,9 +3863,13 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>485</v>
+      </c>
+      <c r="B35" s="5">
+        <v>212</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
@@ -3734,9 +3877,13 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>4523</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2187</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="G36" s="5"/>
@@ -3744,9 +3891,13 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>718</v>
+      </c>
+      <c r="B37" s="5">
+        <v>136</v>
+      </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="G37" s="5"/>
@@ -3754,9 +3905,13 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+    <row r="38" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>137</v>
+      </c>
+      <c r="B38" s="5">
+        <v>179</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="G38" s="5"/>
@@ -3764,9 +3919,13 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="5">
+        <v>955</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="G39" s="5"/>
@@ -3774,9 +3933,13 @@
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>200</v>
+      </c>
+      <c r="B40" s="5">
+        <v>202</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="G40" s="5"/>
@@ -3784,9 +3947,13 @@
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+    <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>659</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1417</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="G41" s="5"/>
@@ -3794,9 +3961,13 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+    <row r="42" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>483</v>
+      </c>
+      <c r="B42" s="5">
+        <v>214</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="G42" s="5"/>
@@ -3804,9 +3975,13 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>286</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1797</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="G43" s="5"/>
@@ -3814,9 +3989,13 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+    <row r="44" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>257</v>
+      </c>
+      <c r="B44" s="5">
+        <v>403</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="G44" s="5"/>
@@ -3824,9 +4003,13 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+    <row r="45" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>661</v>
+      </c>
+      <c r="B45" s="5">
+        <v>229</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="G45" s="5"/>
@@ -3834,9 +4017,13 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+    <row r="46" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>493</v>
+      </c>
+      <c r="B46" s="5">
+        <v>384</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="G46" s="5"/>
@@ -3844,9 +4031,13 @@
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+    <row r="47" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>100</v>
+      </c>
+      <c r="B47" s="5">
+        <v>369</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="G47" s="5"/>
@@ -3854,9 +4045,13 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>872</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1208</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="G48" s="5"/>
@@ -3864,9 +4059,13 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+    <row r="49" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>212</v>
+      </c>
+      <c r="B49" s="5">
+        <v>64</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="G49" s="5"/>
@@ -3874,9 +4073,13 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+    <row r="50" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
+        <v>2187</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4160</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="G50" s="5"/>
@@ -3884,9 +4087,13 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+    <row r="51" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>136</v>
+      </c>
+      <c r="B51" s="5">
+        <v>310</v>
+      </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="G51" s="5"/>
@@ -3894,9 +4101,13 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+    <row r="52" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>179</v>
+      </c>
+      <c r="B52" s="5">
+        <v>557</v>
+      </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="G52" s="5"/>
@@ -3904,9 +4115,13 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+    <row r="53" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>955</v>
+      </c>
+      <c r="B53" s="5">
+        <v>176</v>
+      </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="G53" s="5"/>
@@ -3914,9 +4129,13 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+    <row r="54" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>566</v>
+      </c>
+      <c r="B54" s="5">
+        <v>312</v>
+      </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="5"/>
@@ -3924,9 +4143,13 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+    <row r="55" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>202</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1290</v>
+      </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="G55" s="5"/>
@@ -3934,9 +4157,13 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+    <row r="56" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>851</v>
+      </c>
+      <c r="B56" s="5">
+        <v>400</v>
+      </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="G56" s="5"/>
@@ -3944,9 +4171,13 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+    <row r="57" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>214</v>
+      </c>
+      <c r="B57" s="5">
+        <v>666</v>
+      </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="G57" s="5"/>
@@ -3954,8 +4185,10 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>1797</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3964,8 +4197,10 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
+    <row r="59" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>403</v>
+      </c>
       <c r="B59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3974,8 +4209,10 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>229</v>
+      </c>
       <c r="B60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3984,8 +4221,10 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>384</v>
+      </c>
       <c r="B61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3994,8 +4233,10 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
+    <row r="62" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>369</v>
+      </c>
       <c r="B62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -4004,8 +4245,10 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+    <row r="63" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>1208</v>
+      </c>
       <c r="B63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -4014,8 +4257,10 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
+    <row r="64" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>64</v>
+      </c>
       <c r="B64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -4025,13 +4270,8 @@
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
-        <f>SUM(A1:A64)</f>
-        <v>198</v>
-      </c>
-      <c r="B65" s="5">
-        <f>SUM(B1:B64)</f>
-        <v>148</v>
+      <c r="A65" s="4">
+        <v>3567</v>
       </c>
       <c r="D65" s="5">
         <f>SUM(D1:D64)</f>
@@ -4059,12 +4299,8 @@
       </c>
     </row>
     <row r="66" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="5">
-        <f>A65-B65</f>
-        <v>50</v>
+      <c r="A66" s="4">
+        <v>310</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>18</v>
@@ -4089,11 +4325,8 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>20</v>
+      <c r="A67" s="4">
+        <v>593</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>19</v>
@@ -4111,6 +4344,68 @@
         <v>19</v>
       </c>
       <c r="K67" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <f>SUM(A1:A84)</f>
+        <v>50321</v>
+      </c>
+      <c r="B85" s="5">
+        <f>SUM(B1:B84)</f>
+        <v>66508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="5">
+        <f>A85-B85</f>
+        <v>-16187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>20</v>
       </c>
     </row>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="69">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>Faltante de Sury con la cantidad de $787.00</t>
+  </si>
+  <si>
+    <t>JUNIO 2024</t>
+  </si>
+  <si>
+    <t>Se registra depósito de jefe (Elías) con las cantidades de: $80,000Y $60,000</t>
+  </si>
+  <si>
+    <t>Se registran tres depósitos a las cantidades de: $160,000, $51,000, $42,101</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades de: $47500 y $30 432 (Depositos)</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades de: $163,000.00 y $16,515.00</t>
+  </si>
+  <si>
+    <t>La cajera Danery le falta comprobar 2 cantidades en las tarjetas, son: $500.00 y $150.00 mas aparte imprimio un reporte de tarjetas que no coicide con el día correspondiente al corte.                                           Se registran 2 cantidades (retiro) Con las cantiades de: $28,220.00 y $228000.00</t>
   </si>
 </sst>
 </file>
@@ -228,7 +246,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,15 +288,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,11 +371,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -360,13 +384,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,79 +697,80 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="11">
         <v>45261</v>
       </c>
       <c r="E8">
@@ -733,7 +779,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="11">
         <v>45262</v>
       </c>
       <c r="E9">
@@ -742,7 +788,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="11">
         <v>45263</v>
       </c>
       <c r="E10">
@@ -751,7 +797,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="11">
         <v>45264</v>
       </c>
       <c r="E11">
@@ -760,7 +806,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="11">
         <v>45265</v>
       </c>
       <c r="E12">
@@ -769,7 +815,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="11">
         <v>45266</v>
       </c>
       <c r="E13">
@@ -778,7 +824,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="11">
         <v>45267</v>
       </c>
       <c r="E14">
@@ -787,7 +833,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="11">
         <v>45268</v>
       </c>
       <c r="E15">
@@ -796,7 +842,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="11">
         <v>45269</v>
       </c>
       <c r="E16">
@@ -805,7 +851,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="11">
         <v>45270</v>
       </c>
       <c r="E17">
@@ -814,7 +860,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="11">
         <v>45271</v>
       </c>
       <c r="E18">
@@ -823,7 +869,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="11">
         <v>45272</v>
       </c>
       <c r="E19">
@@ -832,7 +878,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="11">
         <v>45273</v>
       </c>
       <c r="E20">
@@ -841,7 +887,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="11">
         <v>45274</v>
       </c>
       <c r="E21">
@@ -850,7 +896,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="11">
         <v>45275</v>
       </c>
       <c r="E22">
@@ -859,7 +905,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="11">
         <v>45276</v>
       </c>
       <c r="E23">
@@ -868,7 +914,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="11">
         <v>45277</v>
       </c>
       <c r="E24">
@@ -877,7 +923,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="11">
         <v>45278</v>
       </c>
       <c r="E25">
@@ -886,7 +932,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="11">
         <v>45279</v>
       </c>
       <c r="E26">
@@ -895,7 +941,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="11">
         <v>45280</v>
       </c>
       <c r="E27">
@@ -904,7 +950,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="11">
         <v>45281</v>
       </c>
       <c r="E28">
@@ -913,7 +959,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="11">
         <v>45282</v>
       </c>
       <c r="E29">
@@ -922,7 +968,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="11">
         <v>45283</v>
       </c>
       <c r="E30">
@@ -931,7 +977,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="11">
         <v>45284</v>
       </c>
       <c r="E31">
@@ -940,7 +986,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="11">
         <v>45285</v>
       </c>
       <c r="E32">
@@ -949,7 +995,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="11">
         <v>45286</v>
       </c>
       <c r="E33">
@@ -958,7 +1004,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="11">
         <v>45287</v>
       </c>
       <c r="E34">
@@ -967,7 +1013,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="11">
         <v>45288</v>
       </c>
       <c r="E35">
@@ -976,7 +1022,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="11">
         <v>45289</v>
       </c>
       <c r="E36">
@@ -985,7 +1031,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="11">
         <v>45290</v>
       </c>
       <c r="E37">
@@ -994,7 +1040,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="11">
         <v>45291</v>
       </c>
       <c r="E38">
@@ -1003,39 +1049,39 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="11">
         <v>45292</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E42">
@@ -1044,13 +1090,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="11">
         <v>45293</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E43">
@@ -1059,13 +1105,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="11">
         <v>45294</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E44">
@@ -1074,13 +1120,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="11">
         <v>45295</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E45">
@@ -1089,13 +1135,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="11">
         <v>45296</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E46">
@@ -1104,13 +1150,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="11">
         <v>45297</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>29</v>
       </c>
       <c r="E47">
@@ -1118,14 +1164,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>45298</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E48">
@@ -1134,13 +1180,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="11">
         <v>45299</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E49">
@@ -1149,13 +1195,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="11">
         <v>45300</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E50">
@@ -1164,13 +1210,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="11">
         <v>45301</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E51">
@@ -1178,14 +1224,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
         <v>45302</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E52">
@@ -1193,14 +1239,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
         <v>45303</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E53">
@@ -1209,13 +1255,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="11">
         <v>45304</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E54">
@@ -1223,14 +1269,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
         <v>45305</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E55">
@@ -1239,13 +1285,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="11">
         <v>45306</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E56">
@@ -1254,13 +1300,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="11">
         <v>45307</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E57">
@@ -1269,13 +1315,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="11">
         <v>45308</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E58">
@@ -1284,13 +1330,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="11">
         <v>45309</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E59">
@@ -1299,13 +1345,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="11">
         <v>45310</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E60">
@@ -1314,13 +1360,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="11">
         <v>45311</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E61">
@@ -1329,13 +1375,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="11">
         <v>45312</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E62">
@@ -1344,13 +1390,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="11">
         <v>45313</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E63">
@@ -1359,13 +1405,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="11">
         <v>45314</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E64">
@@ -1374,13 +1420,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="11">
         <v>45315</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E65">
@@ -1389,13 +1435,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="11">
         <v>45316</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E66">
@@ -1404,13 +1450,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="11">
         <v>45317</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E67">
@@ -1418,14 +1464,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
         <v>45318</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E68">
@@ -1433,14 +1479,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
         <v>45319</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E69">
@@ -1448,14 +1494,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
         <v>45320</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E70">
@@ -1463,14 +1509,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
         <v>45321</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E71">
@@ -1479,13 +1525,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="11">
         <v>45322</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E72">
@@ -1494,45 +1540,45 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
       <c r="E74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
         <v>45323</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E76">
@@ -1541,13 +1587,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="11">
         <v>45324</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E77">
@@ -1556,13 +1602,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="11">
         <v>45325</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E78">
@@ -1570,14 +1616,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
         <v>45326</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E79">
@@ -1585,14 +1631,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
         <v>45327</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E80">
@@ -1600,14 +1646,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="81" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
         <v>45328</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E81">
@@ -1616,13 +1662,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="11">
         <v>45329</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E82">
@@ -1630,14 +1676,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="83" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
         <v>45330</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E83">
@@ -1645,14 +1691,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="84" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
         <v>45331</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E84">
@@ -1660,14 +1706,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="85" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
         <v>45332</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E85">
@@ -1676,13 +1722,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="A86" s="11">
         <v>45333</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E86">
@@ -1691,13 +1737,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="A87" s="11">
         <v>45334</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E87">
@@ -1706,13 +1752,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="A88" s="11">
         <v>45335</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E88">
@@ -1721,13 +1767,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="11">
         <v>45336</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E89">
@@ -1736,13 +1782,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="11">
         <v>45337</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E90">
@@ -1751,13 +1797,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="11">
         <v>45338</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E91">
@@ -1765,14 +1811,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="92" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
         <v>45339</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E92">
@@ -1781,13 +1827,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="11">
         <v>45340</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E93">
@@ -1795,14 +1841,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
         <v>45341</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E94">
@@ -1810,14 +1856,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="95" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
         <v>45342</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E95">
@@ -1826,13 +1872,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="11">
         <v>45343</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E96">
@@ -1840,14 +1886,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="97" spans="1:5" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
         <v>45344</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E97">
@@ -1855,14 +1901,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="98" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
         <v>45345</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E98">
@@ -1870,14 +1916,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="99" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
         <v>45346</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E99">
@@ -1886,13 +1932,13 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="A100" s="11">
         <v>45347</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E100">
@@ -1901,13 +1947,13 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="A101" s="11">
         <v>45348</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E101">
@@ -1916,13 +1962,13 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="A102" s="11">
         <v>45349</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E102">
@@ -1930,14 +1976,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="103" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
         <v>45350</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E103">
@@ -1946,7 +1992,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="A104" s="11">
         <v>45351</v>
       </c>
       <c r="B104" t="s">
@@ -1958,36 +2004,36 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
       <c r="E105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
       <c r="E106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="11">
         <v>45352</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E108">
@@ -1996,13 +2042,13 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="11">
         <v>45353</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E109">
@@ -2011,13 +2057,13 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="11">
         <v>45354</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E110">
@@ -2026,13 +2072,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="11">
         <v>45355</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E111">
@@ -2041,13 +2087,13 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="11">
         <v>45356</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E112">
@@ -2056,13 +2102,13 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="11">
         <v>45357</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E113">
@@ -2071,13 +2117,13 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="11">
         <v>45358</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E114">
@@ -2086,13 +2132,13 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="11">
         <v>45359</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E115">
@@ -2101,13 +2147,13 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="11">
         <v>45360</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E116">
@@ -2116,13 +2162,13 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="11">
         <v>45361</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E117">
@@ -2131,13 +2177,13 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="A118" s="11">
         <v>45362</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E118">
@@ -2145,14 +2191,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+    <row r="119" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
         <v>45363</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E119">
@@ -2161,13 +2207,13 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="A120" s="11">
         <v>45364</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E120">
@@ -2176,13 +2222,13 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="A121" s="11">
         <v>45365</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E121">
@@ -2191,13 +2237,13 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="A122" s="11">
         <v>45366</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E122">
@@ -2206,13 +2252,13 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="A123" s="11">
         <v>45367</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E123">
@@ -2220,14 +2266,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+    <row r="124" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
         <v>45368</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E124">
@@ -2236,13 +2282,13 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="A125" s="11">
         <v>45369</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E125">
@@ -2250,14 +2296,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+    <row r="126" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
         <v>45370</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E126">
@@ -2266,13 +2312,13 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="A127" s="11">
         <v>45371</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E127">
@@ -2280,14 +2326,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+    <row r="128" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
         <v>45372</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E128">
@@ -2296,13 +2342,13 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="A129" s="11">
         <v>45373</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E129">
@@ -2310,14 +2356,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row r="130" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
         <v>45374</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E130">
@@ -2326,7 +2372,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="11">
         <v>45375</v>
       </c>
       <c r="B131" t="s">
@@ -2337,14 +2383,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+    <row r="132" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
         <v>45376</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E132">
@@ -2352,14 +2398,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+    <row r="133" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="11">
         <v>45377</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E133">
@@ -2367,14 +2413,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+    <row r="134" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
         <v>45378</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E134">
@@ -2382,14 +2428,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+    <row r="135" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
         <v>45379</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E135">
@@ -2397,14 +2443,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+    <row r="136" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
         <v>45380</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E136">
@@ -2413,13 +2459,13 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="11">
         <v>45381</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E137">
@@ -2428,13 +2474,13 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="11">
         <v>45382</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E138">
@@ -2443,31 +2489,31 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
       <c r="E139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
       <c r="E140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E141">
@@ -2475,13 +2521,13 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="11">
         <v>45383</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E142">
@@ -2490,13 +2536,13 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="11">
         <v>45384</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E143">
@@ -2505,13 +2551,13 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="11">
         <v>45385</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E144">
@@ -2520,13 +2566,13 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="A145" s="11">
         <v>45386</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E145">
@@ -2535,13 +2581,13 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="A146" s="11">
         <v>45387</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E146">
@@ -2550,13 +2596,13 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="A147" s="11">
         <v>45388</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E147">
@@ -2565,13 +2611,13 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="A148" s="11">
         <v>45389</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E148">
@@ -2580,13 +2626,13 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+      <c r="A149" s="11">
         <v>45390</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E149">
@@ -2595,13 +2641,13 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+      <c r="A150" s="11">
         <v>45391</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E150">
@@ -2610,13 +2656,13 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="A151" s="11">
         <v>45392</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E151">
@@ -2624,14 +2670,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+    <row r="152" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="11">
         <v>45393</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E152">
@@ -2640,13 +2686,13 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+      <c r="A153" s="11">
         <v>45394</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E153">
@@ -2655,13 +2701,13 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="A154" s="11">
         <v>45395</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E154">
@@ -2670,13 +2716,13 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="A155" s="11">
         <v>45396</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E155">
@@ -2685,13 +2731,13 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="A156" s="11">
         <v>45397</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E156">
@@ -2700,13 +2746,13 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="A157" s="11">
         <v>45398</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E157">
@@ -2715,13 +2761,13 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="A158" s="11">
         <v>45399</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E158">
@@ -2730,13 +2776,13 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="A159" s="11">
         <v>45400</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E159">
@@ -2745,13 +2791,13 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="A160" s="11">
         <v>45401</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E160">
@@ -2760,13 +2806,13 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="A161" s="11">
         <v>45402</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E161">
@@ -2775,13 +2821,13 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="A162" s="11">
         <v>45403</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E162">
@@ -2790,13 +2836,13 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="A163" s="11">
         <v>45404</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E163">
@@ -2805,13 +2851,13 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+      <c r="A164" s="11">
         <v>45405</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E164">
@@ -2820,13 +2866,13 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="A165" s="11">
         <v>45406</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E165">
@@ -2835,13 +2881,13 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="A166" s="11">
         <v>45407</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E166">
@@ -2850,13 +2896,13 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="A167" s="11">
         <v>45408</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E167">
@@ -2865,13 +2911,13 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="A168" s="11">
         <v>45409</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E168">
@@ -2880,13 +2926,13 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="A169" s="11">
         <v>45410</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E169">
@@ -2894,14 +2940,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+    <row r="170" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
         <v>45411</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E170">
@@ -2910,13 +2956,13 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+      <c r="A171" s="11">
         <v>45412</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E171">
@@ -2925,25 +2971,25 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+    </row>
+    <row r="174" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
         <v>45413</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E174">
@@ -2952,13 +2998,13 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="A175" s="11">
         <v>45414</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E175">
@@ -2967,13 +3013,13 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="A176" s="11">
         <v>45415</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E176">
@@ -2982,13 +3028,13 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+      <c r="A177" s="11">
         <v>45416</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E177">
@@ -2997,13 +3043,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="A178" s="11">
         <v>45417</v>
       </c>
       <c r="B178" t="s">
         <v>54</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E178">
@@ -3011,14 +3057,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+    <row r="179" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
         <v>45418</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E179">
@@ -3027,13 +3073,13 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+      <c r="A180" s="11">
         <v>45419</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E180">
@@ -3042,13 +3088,13 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="A181" s="11">
         <v>45420</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E181">
@@ -3057,13 +3103,13 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+      <c r="A182" s="11">
         <v>45421</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E182">
@@ -3072,13 +3118,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+      <c r="A183" s="11">
         <v>45422</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E183">
@@ -3087,13 +3133,13 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+      <c r="A184" s="11">
         <v>45423</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E184">
@@ -3102,13 +3148,13 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+      <c r="A185" s="11">
         <v>45424</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E185">
@@ -3117,13 +3163,13 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+      <c r="A186" s="11">
         <v>45425</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E186">
@@ -3132,13 +3178,13 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+      <c r="A187" s="11">
         <v>45426</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E187">
@@ -3147,13 +3193,13 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="A188" s="11">
         <v>45427</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E188">
@@ -3161,14 +3207,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+    <row r="189" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="11">
         <v>45428</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E189">
@@ -3176,14 +3222,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+    <row r="190" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="11">
         <v>45429</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E190">
@@ -3191,14 +3237,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+    <row r="191" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
         <v>45430</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E191">
@@ -3207,7 +3253,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+      <c r="A192" s="11">
         <v>45431</v>
       </c>
       <c r="E192">
@@ -3216,13 +3262,13 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+      <c r="A193" s="11">
         <v>45432</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E193">
@@ -3231,13 +3277,13 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+      <c r="A194" s="11">
         <v>45433</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E194">
@@ -3245,14 +3291,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+    <row r="195" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
         <v>45434</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E195">
@@ -3260,9 +3306,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+    <row r="196" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
         <v>45435</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E196">
         <f t="shared" si="4"/>
@@ -3270,8 +3322,14 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="A197" s="11">
         <v>45436</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E197">
         <f t="shared" si="4"/>
@@ -3279,8 +3337,14 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="A198" s="11">
         <v>45437</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E198">
         <f t="shared" si="4"/>
@@ -3288,8 +3352,14 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+      <c r="A199" s="11">
         <v>45438</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E199">
         <f t="shared" si="4"/>
@@ -3297,8 +3367,14 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+      <c r="A200" s="11">
         <v>45439</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E200">
         <f t="shared" si="4"/>
@@ -3306,8 +3382,14 @@
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+      <c r="A201" s="11">
         <v>45440</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E201">
         <f t="shared" si="4"/>
@@ -3315,8 +3397,14 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+      <c r="A202" s="11">
         <v>45441</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E202">
         <f t="shared" si="4"/>
@@ -3324,8 +3412,14 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="A203" s="11">
         <v>45442</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E203">
         <f t="shared" si="4"/>
@@ -3333,24 +3427,355 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="A204" s="11">
         <v>45443</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E204">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+    </row>
+    <row r="207" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="11">
+        <v>45444</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207">
+        <f>WEEKDAY(A207)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>45445</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E208">
+        <f>WEEKDAY(A208)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>45446</v>
+      </c>
+      <c r="E209">
+        <f t="shared" ref="E209:E236" si="5">WEEKDAY(A209)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>45447</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>45448</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
+        <v>45449</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="11">
+        <v>45450</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="11">
+        <v>45451</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="11">
+        <v>45452</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11">
+        <v>45453</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="11">
+        <v>45454</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="11">
+        <v>45455</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="11">
+        <v>45456</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11">
+        <v>45457</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11">
+        <v>45458</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="11">
+        <v>45459</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="11">
+        <v>45460</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="11">
+        <v>45461</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="11">
+        <v>45462</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="11">
+        <v>45463</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="11">
+        <v>45464</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="11">
+        <v>45465</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="11">
+        <v>45466</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="11">
+        <v>45467</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="11">
+        <v>45468</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="11">
+        <v>45469</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11">
+        <v>45470</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="11">
+        <v>45471</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="11">
+        <v>45472</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="11">
+        <v>45473</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E41:E138"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A39:C40"/>
+    <mergeCell ref="A73:C74"/>
+    <mergeCell ref="A205:C206"/>
     <mergeCell ref="A172:C173"/>
     <mergeCell ref="A139:C140"/>
     <mergeCell ref="A105:C106"/>
     <mergeCell ref="A5:C6"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="A73:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3362,760 +3787,804 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9">
-        <v>198</v>
-      </c>
-      <c r="B1" s="5">
-        <v>68</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" ht="21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
-        <f>SUM(A1:A64)</f>
-        <v>198</v>
-      </c>
-      <c r="B65" s="5">
-        <f>SUM(B1:B64)</f>
-        <v>148</v>
-      </c>
-      <c r="D65" s="5">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="D65" s="4">
         <f>SUM(D1:D64)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="4">
         <f>SUM(E1:E64)</f>
         <v>0</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <f>SUM(G1:G64)</f>
         <v>0</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="4">
         <f>SUM(H1:H64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="4">
         <f>SUM(J1:J64)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="4">
         <f>SUM(K1:K64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="D66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="5">
-        <f>A65-B65</f>
-        <v>50</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="5">
+      <c r="E66" s="4">
         <f>D65-E65</f>
         <v>0</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="4">
         <f>G65-H65</f>
         <v>0</v>
       </c>
-      <c r="J66" s="6" t="s">
+      <c r="J66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <f>J65-K65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="D67" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="G67" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="H67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="J67" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="K67" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="7" t="s">
+    </row>
+    <row r="68" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <f>SUM(A1:A77)</f>
+        <v>0</v>
+      </c>
+      <c r="B78" s="15">
+        <f>SUM(B1:B77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="18">
+        <f>A78-B78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="B80" s="16" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.24" right="0.21" top="0.2" bottom="0.75" header="0.17" footer="0.3"/>
+  <pageMargins left="4.3099999999999996" right="0.21" top="0.2" bottom="0.75" header="0.17" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Repositorios\Cortes\11 Sur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE788AE-0D9C-45C8-815D-C2EF871F8293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte General 11 Sur'!$E$41:$E$138</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -226,9 +227,6 @@
     <t>Se registra depósito de jefe (Elías) con las cantidades de: $80,000Y $60,000</t>
   </si>
   <si>
-    <t>Se registran tres depósitos a las cantidades de: $160,000, $51,000, $42,101</t>
-  </si>
-  <si>
     <t>Se registran 2 cantidades de: $47500 y $30 432 (Depositos)</t>
   </si>
   <si>
@@ -236,12 +234,51 @@
   </si>
   <si>
     <t>La cajera Danery le falta comprobar 2 cantidades en las tarjetas, son: $500.00 y $150.00 mas aparte imprimio un reporte de tarjetas que no coicide con el día correspondiente al corte.                                           Se registran 2 cantidades (retiro) Con las cantiades de: $28,220.00 y $228000.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades de: $156,000.00 y $18,808.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades de: $131,000.00 y $30,372.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se registran 2 cantidades $105,000.00 y $ 34,736.00 </t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades: $ 85,000.00 y $41,745.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $175,000.00 $50,000.00 y $45,205.50</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $55,142.00 $175,00.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $ 85,000.00 $46,407.00 y aparte un deposito independiente del jefe (Pepe) de $.8,030.00</t>
+  </si>
+  <si>
+    <t>Se registra 4 cantidades $200,000.00 $80,000.00  y $25,695.50 y $939.00 (jefe Pepe)</t>
+  </si>
+  <si>
+    <t>Se registra 4 cantidades $80,000.00 $ 36,000.00 $24,347.00 y $5,015.00 (Pepe)</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades: $150,000.00 $30,000.00 $44,384.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $90,000.00 $37,000.00 $28,566.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $75,000.00 y $42,361.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $130,000.00 $60,000.00 $55,075.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -693,14 +730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3314,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E196">
         <f t="shared" si="4"/>
@@ -3461,7 +3498,7 @@
         <v>8</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E207">
         <f>WEEKDAY(A207)</f>
@@ -3476,70 +3513,112 @@
         <v>8</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E208">
         <f>WEEKDAY(A208)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="11">
         <v>45446</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E209">
         <f t="shared" ref="E209:E236" si="5">WEEKDAY(A209)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="11">
         <v>45447</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E210">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="11">
         <v>45448</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E211">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="11">
         <v>45449</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E212">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="11">
         <v>45450</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E213">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="11">
         <v>45451</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E214">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="11">
         <v>45452</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E215">
         <f t="shared" si="5"/>
@@ -3606,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="11">
         <v>45457</v>
       </c>
@@ -3614,43 +3693,67 @@
         <v>8</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E220">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="11">
         <v>45458</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="E221">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="11">
         <v>45459</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E222">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="11">
         <v>45460</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E223">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="11">
         <v>45461</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E224">
         <f t="shared" si="5"/>
@@ -3661,6 +3764,12 @@
       <c r="A225" s="11">
         <v>45462</v>
       </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E225">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3670,14 +3779,20 @@
       <c r="A226" s="11">
         <v>45463</v>
       </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
       <c r="E226">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="11">
         <v>45464</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E227">
         <f t="shared" si="5"/>
@@ -3766,7 +3881,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E41:E138"/>
+  <autoFilter ref="E41:E138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="8">
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="A39:C40"/>
@@ -3783,13 +3898,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3802,8 +3919,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
+      <c r="A1" s="14">
+        <v>2547</v>
+      </c>
+      <c r="B1" s="14">
+        <v>1685</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="G1" s="4"/>
@@ -3951,7 +4072,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="D16" s="4"/>
@@ -3961,7 +4082,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="D17" s="4"/>
@@ -3971,7 +4092,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="D18" s="4"/>
@@ -3981,7 +4102,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="D19" s="4"/>
@@ -3991,7 +4112,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="D20" s="4"/>
@@ -4001,7 +4122,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="D21" s="4"/>
@@ -4011,7 +4132,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="D22" s="4"/>
@@ -4021,7 +4142,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="D23" s="4"/>
@@ -4031,7 +4152,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="D24" s="4"/>
@@ -4041,7 +4162,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="D25" s="4"/>
@@ -4051,7 +4172,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="D26" s="4"/>
@@ -4061,7 +4182,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="D27" s="4"/>
@@ -4071,7 +4192,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="D28" s="4"/>
@@ -4081,7 +4202,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="D29" s="4"/>
@@ -4091,7 +4212,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="D30" s="4"/>
@@ -4101,7 +4222,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="D31" s="4"/>
@@ -4111,7 +4232,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="D32" s="4"/>
@@ -4121,7 +4242,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="D33" s="4"/>
@@ -4131,7 +4252,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="D34" s="4"/>
@@ -4141,7 +4262,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="D35" s="4"/>
@@ -4151,7 +4272,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="D36" s="4"/>
@@ -4161,7 +4282,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="D37" s="4"/>
@@ -4171,7 +4292,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="D38" s="4"/>
@@ -4181,7 +4302,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="D39" s="4"/>
@@ -4191,7 +4312,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="D40" s="4"/>
@@ -4201,7 +4322,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="D41" s="4"/>
@@ -4211,7 +4332,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="D42" s="4"/>
@@ -4221,7 +4342,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="D43" s="4"/>
@@ -4231,7 +4352,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="D44" s="4"/>
@@ -4241,7 +4362,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="D45" s="4"/>
@@ -4251,7 +4372,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="D46" s="4"/>
@@ -4261,7 +4382,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="D47" s="4"/>
@@ -4271,7 +4392,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="D48" s="4"/>
@@ -4281,7 +4402,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="D49" s="4"/>
@@ -4291,7 +4412,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="D50" s="4"/>
@@ -4301,7 +4422,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="D51" s="4"/>
@@ -4311,7 +4432,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="D52" s="4"/>
@@ -4321,7 +4442,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="D53" s="4"/>
@@ -4331,7 +4452,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="D54" s="4"/>
@@ -4341,7 +4462,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="D55" s="4"/>
@@ -4351,7 +4472,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="D56" s="4"/>
@@ -4361,7 +4482,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="D57" s="4"/>
@@ -4371,7 +4492,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="D58" s="4"/>
@@ -4381,7 +4502,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="D59" s="4"/>
@@ -4391,7 +4512,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="D60" s="4"/>
@@ -4401,7 +4522,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="D61" s="4"/>
@@ -4411,7 +4532,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="D62" s="4"/>
@@ -4421,7 +4542,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="D63" s="4"/>
@@ -4431,7 +4552,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="D64" s="4"/>
@@ -4441,7 +4562,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="D65" s="4">
@@ -4469,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="D66" s="5" t="s">
@@ -4494,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="D67" s="6" t="s">
@@ -4516,54 +4637,54 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
     </row>
-    <row r="71" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
     </row>
-    <row r="73" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
     </row>
     <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>SUM(A1:A77)</f>
-        <v>0</v>
+        <v>2547</v>
       </c>
       <c r="B78" s="15">
         <f>SUM(B1:B77)</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4572,7 +4693,7 @@
       </c>
       <c r="B79" s="18">
         <f>A78-B78</f>
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE788AE-0D9C-45C8-815D-C2EF871F8293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727AE0B-291A-43B7-9A7F-EEA5882FB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="90">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -273,6 +273,33 @@
   </si>
   <si>
     <t>Se registran 3 cantidades $130,000.00 $60,000.00 $55,075.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $105,000.00 y $33,817.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $110,000.00 y $45,770.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $80,000.00, $120.000.00, $40,000.00 y $50759.00</t>
+  </si>
+  <si>
+    <t>Se regostran 3 cantidades $80,000.00, $120,00.00 y $38,401.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $80,000.00, $25,000.00, $23,513.00 y $101.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 canticades $80,000.00, $34,000.00 y $25,169.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $80,000.00, $34,000.00 y $24,015.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $100,000.00, $35,000.00 y $28422.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $80,000.00, $85,000.00 y $76,377.00</t>
   </si>
 </sst>
 </file>
@@ -3791,6 +3818,9 @@
       <c r="A227" s="11">
         <v>45464</v>
       </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
       <c r="C227" s="7" t="s">
         <v>80</v>
       </c>
@@ -3799,81 +3829,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="11">
         <v>45465</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E228">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="11">
         <v>45466</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E229">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="11">
         <v>45467</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E230">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="11">
         <v>45468</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E231">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="11">
         <v>45469</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E232">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="11">
         <v>45470</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E233">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="11">
         <v>45471</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E234">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="11">
         <v>45472</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E235">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="11">
         <v>45473</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E236">
         <f t="shared" si="5"/>
@@ -3905,7 +3989,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,10 +4004,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
-        <v>2547</v>
+        <v>415</v>
       </c>
       <c r="B1" s="14">
-        <v>1685</v>
+        <v>282</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4680,11 +4764,11 @@
     <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>SUM(A1:A77)</f>
-        <v>2547</v>
+        <v>415</v>
       </c>
       <c r="B78" s="15">
         <f>SUM(B1:B77)</f>
-        <v>1685</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4693,7 +4777,7 @@
       </c>
       <c r="B79" s="18">
         <f>A78-B78</f>
-        <v>862</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727AE0B-291A-43B7-9A7F-EEA5882FB3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7B981-E7DC-4602-8BE1-25D419D78205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Se registran 4 cantidades $80,000.00, $120.000.00, $40,000.00 y $50759.00</t>
   </si>
   <si>
-    <t>Se regostran 3 cantidades $80,000.00, $120,00.00 y $38,401.00</t>
-  </si>
-  <si>
     <t>Se registran 4 cantidades $80,000.00, $25,000.00, $23,513.00 y $101.00</t>
   </si>
   <si>
@@ -300,6 +297,15 @@
   </si>
   <si>
     <t>Se registran 3 cantidades $80,000.00, $85,000.00 y $76,377.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $80,000.00, $120,00.00 y $38,401.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $90,000.00 y $54,783.00</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $100,000.00 y $54,915.50</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +376,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,10 +773,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,7 +3849,7 @@
         <v>8</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E228">
         <f t="shared" si="5"/>
@@ -3852,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E229">
         <f t="shared" si="5"/>
@@ -3867,7 +3879,7 @@
         <v>8</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E230">
         <f t="shared" si="5"/>
@@ -3882,7 +3894,7 @@
         <v>8</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E231">
         <f t="shared" si="5"/>
@@ -3897,7 +3909,7 @@
         <v>8</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E232">
         <f t="shared" si="5"/>
@@ -3942,7 +3954,7 @@
         <v>8</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E235">
         <f t="shared" si="5"/>
@@ -3964,9 +3976,319 @@
         <v>1</v>
       </c>
     </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="20"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+    </row>
+    <row r="239" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11">
+        <v>45474</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E239">
+        <f>WEEKDAY(A239)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="11">
+        <v>45475</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E240">
+        <f t="shared" ref="E240:E269" si="6">WEEKDAY(A240)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="11">
+        <v>45476</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="11">
+        <v>45477</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="11">
+        <v>45478</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="11">
+        <v>45479</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="11">
+        <v>45480</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="11">
+        <v>45481</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="11">
+        <v>45482</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="11">
+        <v>45483</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="11">
+        <v>45484</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="11">
+        <v>45485</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11">
+        <v>45486</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="11">
+        <v>45487</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="11">
+        <v>45488</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="11">
+        <v>45489</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="11">
+        <v>45490</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11">
+        <v>45491</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="11">
+        <v>45492</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="11">
+        <v>45493</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
+        <v>45494</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="11">
+        <v>45495</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="11">
+        <v>45496</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="11">
+        <v>45497</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="11">
+        <v>45498</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="11">
+        <v>45499</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>45500</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="11">
+        <v>45501</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="11">
+        <v>45502</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="11">
+        <v>45503</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="11">
+        <v>45504</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E41:E138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A237:C238"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="A39:C40"/>
     <mergeCell ref="A73:C74"/>
@@ -3976,6 +4298,7 @@
     <mergeCell ref="A105:C106"/>
     <mergeCell ref="A5:C6"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7B981-E7DC-4602-8BE1-25D419D78205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C837A-3B69-4AA7-881B-7BEB6CD6A3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte General 11 Sur" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="93">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Se registran 2 cantidades $100,000.00 y $54,915.50</t>
+  </si>
+  <si>
+    <t>JULIO 2024</t>
   </si>
 </sst>
 </file>
@@ -483,11 +486,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,50 +789,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1125,16 +1128,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
@@ -1616,19 +1619,19 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="E73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="E74">
         <v>0</v>
       </c>
@@ -2080,19 +2083,19 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="E105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="E106">
         <v>0</v>
       </c>
@@ -2565,19 +2568,19 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
       <c r="E139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="20"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
       <c r="E140">
         <v>0</v>
       </c>
@@ -3047,16 +3050,16 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
     </row>
     <row r="174" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="11">
@@ -3518,16 +3521,16 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
+      <c r="A205" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B205" s="20"/>
-      <c r="C205" s="20"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="20"/>
-      <c r="B206" s="20"/>
-      <c r="C206" s="20"/>
+      <c r="A206" s="19"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="19"/>
     </row>
     <row r="207" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="11">
@@ -3977,16 +3980,16 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
+      <c r="A237" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="20"/>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="A238" s="19"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="19"/>
     </row>
     <row r="239" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="11">
@@ -4312,7 +4315,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,10 +4330,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
-        <v>415</v>
+        <v>139985</v>
       </c>
       <c r="B1" s="14">
-        <v>282</v>
+        <v>105000</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4341,7 +4344,9 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14">
+        <v>34736</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
@@ -5087,11 +5092,11 @@
     <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>SUM(A1:A77)</f>
-        <v>415</v>
+        <v>139985</v>
       </c>
       <c r="B78" s="15">
         <f>SUM(B1:B77)</f>
-        <v>282</v>
+        <v>139736</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5100,7 +5105,7 @@
       </c>
       <c r="B79" s="18">
         <f>A78-B78</f>
-        <v>133</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C837A-3B69-4AA7-881B-7BEB6CD6A3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4E7AC-CDCF-4E5F-A208-DE791D5F0E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="97">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>JULIO 2024</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades  $130,000.00, $82,700.00, $76,006.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $150,000.00, $60,000.00, $65,509.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $170,000.00, $40,000.00, $49,259.00 y deposito a (Jefe Elias) $5,000.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades  $110,000.00, $78,181.00, $100,000.00, $56,069.00</t>
   </si>
 </sst>
 </file>
@@ -778,8 +790,8 @@
   </sheetPr>
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="11">
         <v>45475</v>
       </c>
@@ -4036,36 +4048,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="11">
         <v>45477</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E242">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="11">
         <v>45478</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E243">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="11">
         <v>45479</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E244">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="11">
         <v>45480</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E245">
         <f t="shared" si="6"/>
@@ -4315,7 +4351,7 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,10 +4366,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
-        <v>139985</v>
+        <v>1007</v>
       </c>
       <c r="B1" s="14">
-        <v>105000</v>
+        <v>435</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4344,9 +4380,7 @@
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="14">
-        <v>34736</v>
-      </c>
+      <c r="B2" s="14"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="G2" s="4"/>
@@ -5092,11 +5126,11 @@
     <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>SUM(A1:A77)</f>
-        <v>139985</v>
+        <v>1007</v>
       </c>
       <c r="B78" s="15">
         <f>SUM(B1:B77)</f>
-        <v>139736</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5105,7 +5139,7 @@
       </c>
       <c r="B79" s="18">
         <f>A78-B78</f>
-        <v>249</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4E7AC-CDCF-4E5F-A208-DE791D5F0E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BBB2B0-225A-4F50-9E8F-A2D9730FDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="101">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>Se registran 4 cantidades  $110,000.00, $78,181.00, $100,000.00, $56,069.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $ 90,000.00, $35,000.00, $65,293.00</t>
+  </si>
+  <si>
+    <t>Se mesclaron los cortes del día 7 y 8 por no cerrar la caja en el día 7</t>
+  </si>
+  <si>
+    <t>Se registran 2 cantidades $100,000.00 y $97,986.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -790,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C246" sqref="C246"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,9 +4120,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="11">
         <v>45481</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="E246">
         <f t="shared" si="6"/>
@@ -4121,14 +4139,26 @@
       <c r="A247" s="11">
         <v>45482</v>
       </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E247">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="11">
         <v>45483</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E248">
         <f t="shared" si="6"/>
@@ -4138,6 +4168,9 @@
     <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>45484</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E249">
         <f t="shared" si="6"/>

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BBB2B0-225A-4F50-9E8F-A2D9730FDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BB870-4852-4E5D-B7E5-DF95DDA000B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="105">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -332,7 +332,19 @@
     <t>Se registran 2 cantidades $100,000.00 y $97,986.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Se registran 4 cantidades $150,000.00, $60,000.00, $20,000.00, $68641.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $80,000.00, $80,000.00, $65,000.00, $57,305.00</t>
+  </si>
+  <si>
+    <t>Se encuentra un faltante de tarjeta de $463.00 que se metio a efectivo y la cajera reporta que dicho dinero se le entrego a VICTOR. Se registran 3 cantidades $120,000.00, $40,000.00, $43,379.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $110,000.00, $10,000.00, $58,024.00, $211.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $130,000.00, $82,700.00, $76,006.00</t>
   </si>
 </sst>
 </file>
@@ -802,8 +814,8 @@
   </sheetPr>
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,48 +4177,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="11">
         <v>45484</v>
       </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
       <c r="C249" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E249">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="11">
         <v>45485</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E250">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="11">
         <v>45486</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E251">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="11">
         <v>45487</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E252">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="11">
         <v>45488</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E253">
         <f t="shared" si="6"/>
@@ -4383,7 +4419,7 @@
   </sheetPr>
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4399,10 +4435,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
-        <v>1007</v>
+        <v>412</v>
       </c>
       <c r="B1" s="14">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5159,11 +5195,11 @@
     <row r="78" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <f>SUM(A1:A77)</f>
-        <v>1007</v>
+        <v>412</v>
       </c>
       <c r="B78" s="15">
         <f>SUM(B1:B77)</f>
-        <v>435</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="13" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5172,7 +5208,7 @@
       </c>
       <c r="B79" s="18">
         <f>A78-B78</f>
-        <v>572</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/11 Sur/11 Sur copia.xlsx
+++ b/11 Sur/11 Sur copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero_\OneDrive\Documentos\GitHub\Cortes\11 Sur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BB870-4852-4E5D-B7E5-DF95DDA000B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C3885-0358-41B6-B773-74D68A94E45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="111">
   <si>
     <t>REPORTE GENERAL DE CORTES 2023-2024</t>
   </si>
@@ -345,6 +345,24 @@
   </si>
   <si>
     <t>Se registran 4 cantidades $130,000.00, $82,700.00, $76,006.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $130,000.00 , $35,000.00, $56,363.50</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $100,000.00, $38,000.00, $50,503.00</t>
+  </si>
+  <si>
+    <t>Se registran 4 cantidades $100,000.00 $40,000.00, $55,000.00, $61,559.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $195.000.00, $164.096.00, $181.00</t>
+  </si>
+  <si>
+    <t>Se registran 6 cantidades $100.000.00, $70,000.00, $30,000.00, $45,000.00, $48.344.00, $353.00</t>
+  </si>
+  <si>
+    <t>Se registran 3 cantidades $70,000.00, $30,000.00, $54,469.00</t>
   </si>
 </sst>
 </file>
@@ -814,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4249,54 +4267,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="11">
         <v>45489</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E254">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="11">
         <v>45490</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E255">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="11">
         <v>45491</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E256">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="11">
         <v>45492</v>
+      </c>
+      <c r="B257" t="s">
+        <v>8</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E257">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="11">
         <v>45493</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="E258">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="11">
         <v>45494</v>
+      </c>
+      <c r="B259" t="s">
+        <v>8</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E259">
         <f t="shared" si="6"/>
